--- a/tested/data/data.xlsx
+++ b/tested/data/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dev\Netops\tested\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\Netops\tested\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8A1A2F-3D6F-4A12-A20C-DBA780ADB988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84C43F-9B39-4AD8-91E1-E4AB9A3BD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59865" yWindow="17640" windowWidth="21600" windowHeight="11430" xr2:uid="{78BF8AD0-37DD-4E39-822F-59CF3F1354CF}"/>
+    <workbookView xWindow="9135" yWindow="413" windowWidth="17738" windowHeight="14512" activeTab="1" xr2:uid="{78BF8AD0-37DD-4E39-822F-59CF3F1354CF}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterNodes" sheetId="1" r:id="rId1"/>
+    <sheet name="OOB_IP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>APIC</t>
   </si>
@@ -100,6 +101,33 @@
   </si>
   <si>
     <t>AAAA00000008</t>
+  </si>
+  <si>
+    <t>NodeID</t>
+  </si>
+  <si>
+    <t>PodID</t>
+  </si>
+  <si>
+    <t>OOB_IP</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>10.10.20.14</t>
+  </si>
+  <si>
+    <t>10.10.20.101</t>
+  </si>
+  <si>
+    <t>10.10.20.254</t>
+  </si>
+  <si>
+    <t>10.10.20.102</t>
   </si>
 </sst>
 </file>
@@ -459,9 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A61F51-2E24-4EAD-A07A-131F9D59B8B3}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -628,4 +654,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EF491B-C670-405C-877D-13C8C2BE696A}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>